--- a/docs/퍼블_작업내용추적서230404.xlsx
+++ b/docs/퍼블_작업내용추적서230404.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\230130\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\LXH_PROJECT\framework\workspace\hd_const\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F980117-F4C4-407B-9B33-49959DBFA01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A848E98-A161-4DFA-891A-69AA4752906E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12100" yWindow="1050" windowWidth="21890" windowHeight="15280" activeTab="1" xr2:uid="{85137062-74D6-4CD7-A411-378C3CD8855B}"/>
+    <workbookView xWindow="420" yWindow="7130" windowWidth="19840" windowHeight="13240" activeTab="1" xr2:uid="{85137062-74D6-4CD7-A411-378C3CD8855B}"/>
   </bookViews>
   <sheets>
     <sheet name="사전사항" sheetId="1" r:id="rId1"/>
@@ -1091,6 +1091,30 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1100,32 +1124,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1466,7 +1466,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="25" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="10">
@@ -1477,7 +1477,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="17"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="10">
         <v>2</v>
       </c>
@@ -1486,26 +1486,26 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="17"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="10"/>
       <c r="C7" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="17"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="17"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="26" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="12">
@@ -1516,14 +1516,14 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" s="18"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="12"/>
       <c r="C11" s="13" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="18"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="12">
         <v>4</v>
       </c>
@@ -1532,12 +1532,12 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" s="18"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="12"/>
       <c r="C13" s="13"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" s="18"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="12">
         <v>5</v>
       </c>
@@ -1546,21 +1546,21 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" s="18"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="12"/>
       <c r="C15" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16" s="18"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="12"/>
       <c r="C16" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="25" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="10">
@@ -1571,14 +1571,14 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="17"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="10"/>
       <c r="C18" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" s="17"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="10">
         <v>7</v>
       </c>
@@ -1587,19 +1587,19 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" s="17"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="10"/>
       <c r="C20" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" s="17"/>
+      <c r="A21" s="25"/>
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" s="17"/>
+      <c r="A22" s="25"/>
       <c r="B22" s="10">
         <v>8</v>
       </c>
@@ -1608,19 +1608,19 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23" s="17"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="10"/>
       <c r="C23" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" s="17"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="10"/>
       <c r="C24" s="11"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="26" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="12">
@@ -1631,26 +1631,26 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26" s="18"/>
+      <c r="A26" s="26"/>
       <c r="B26" s="12"/>
       <c r="C26" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" s="18"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="12"/>
       <c r="C27" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A28" s="18"/>
+      <c r="A28" s="26"/>
       <c r="B28" s="12"/>
       <c r="C28" s="13"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A29" s="18"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="12">
         <v>10</v>
       </c>
@@ -1659,19 +1659,19 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A30" s="18"/>
+      <c r="A30" s="26"/>
       <c r="B30" s="12"/>
       <c r="C30" s="13" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A31" s="18"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="12"/>
       <c r="C31" s="13"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A32" s="18"/>
+      <c r="A32" s="26"/>
       <c r="B32" s="12">
         <v>11</v>
       </c>
@@ -1680,7 +1680,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A33" s="19"/>
+      <c r="A33" s="27"/>
       <c r="B33" s="14"/>
       <c r="C33" s="15" t="s">
         <v>28</v>
@@ -1703,7 +1703,7 @@
   <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1719,32 +1719,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20" t="s">
+      <c r="E1" s="17"/>
+      <c r="F1" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="17" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B2" s="21"/>
+      <c r="B2" s="18"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="28" t="s">
         <v>52</v>
       </c>
       <c r="C3" s="5"/>
@@ -1754,12 +1754,12 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="19" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B4" s="22"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
         <v>54</v>
@@ -1770,7 +1770,7 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B5" s="22"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
         <v>55</v>
@@ -1781,7 +1781,7 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B6" s="22"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
         <v>56</v>
@@ -1792,16 +1792,18 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B7" s="24"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B8" s="24">
+      <c r="B8" s="20">
         <v>9</v>
       </c>
       <c r="C8" s="5"/>
@@ -1818,7 +1820,7 @@
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="20" t="s">
         <v>59</v>
       </c>
       <c r="C9" s="5"/>
@@ -1835,7 +1837,7 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B10" s="24"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1844,7 +1846,7 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B11" s="24">
+      <c r="B11" s="20">
         <v>14</v>
       </c>
       <c r="C11" s="5"/>
@@ -1859,7 +1861,7 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B12" s="24"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -1870,7 +1872,7 @@
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B13" s="24">
+      <c r="B13" s="20">
         <v>15</v>
       </c>
       <c r="C13" s="5"/>
@@ -1893,7 +1895,7 @@
       </c>
     </row>
     <row r="14" spans="2:10" ht="29" x14ac:dyDescent="0.45">
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="20" t="s">
         <v>68</v>
       </c>
       <c r="C14" s="5"/>
@@ -1910,7 +1912,7 @@
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B15" s="24">
+      <c r="B15" s="20">
         <v>17</v>
       </c>
       <c r="C15" s="5"/>
@@ -1928,7 +1930,7 @@
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B16" s="24">
+      <c r="B16" s="20">
         <v>18</v>
       </c>
       <c r="C16" s="5"/>
@@ -1951,7 +1953,7 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B17" s="24">
+      <c r="B17" s="20">
         <v>20</v>
       </c>
       <c r="C17" s="5"/>
@@ -1968,7 +1970,7 @@
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B18" s="24">
+      <c r="B18" s="20">
         <v>22</v>
       </c>
       <c r="C18" s="5"/>
@@ -1985,7 +1987,7 @@
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B19" s="24">
+      <c r="B19" s="20">
         <v>23</v>
       </c>
       <c r="C19" s="5"/>
@@ -2000,7 +2002,7 @@
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B20" s="24">
+      <c r="B20" s="20">
         <v>24</v>
       </c>
       <c r="C20" s="5"/>
@@ -2018,7 +2020,7 @@
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B21" s="24">
+      <c r="B21" s="20">
         <v>30</v>
       </c>
       <c r="C21" s="5"/>
@@ -2032,12 +2034,12 @@
       <c r="G21" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="19" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B22" s="24">
+      <c r="B22" s="20">
         <v>32</v>
       </c>
       <c r="C22" s="5"/>
@@ -2047,13 +2049,13 @@
       <c r="G22" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H22" s="23"/>
+      <c r="H22" s="19"/>
       <c r="J22" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B23" s="24">
+      <c r="B23" s="20">
         <v>34</v>
       </c>
       <c r="C23" s="5"/>
@@ -2076,7 +2078,7 @@
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="20" t="s">
         <v>91</v>
       </c>
       <c r="C24" s="5"/>
@@ -2093,7 +2095,7 @@
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B25" s="24">
+      <c r="B25" s="20">
         <v>38</v>
       </c>
       <c r="C25" s="5"/>
@@ -2110,7 +2112,7 @@
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B26" s="24">
+      <c r="B26" s="20">
         <v>40</v>
       </c>
       <c r="C26" s="5"/>
@@ -2126,7 +2128,7 @@
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B27" s="24">
+      <c r="B27" s="20">
         <v>45</v>
       </c>
       <c r="C27" s="5"/>
@@ -2142,7 +2144,7 @@
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B28" s="24">
+      <c r="B28" s="20">
         <v>51</v>
       </c>
       <c r="C28" s="5"/>
@@ -2159,7 +2161,7 @@
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B29" s="24">
+      <c r="B29" s="20">
         <v>53</v>
       </c>
       <c r="C29" s="5"/>
@@ -2175,7 +2177,7 @@
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B30" s="24">
+      <c r="B30" s="20">
         <v>54</v>
       </c>
       <c r="C30" s="5"/>
@@ -2191,7 +2193,7 @@
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B31" s="24">
+      <c r="B31" s="20">
         <v>56</v>
       </c>
       <c r="C31" s="5"/>
@@ -2207,7 +2209,7 @@
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B32" s="24">
+      <c r="B32" s="20">
         <v>58</v>
       </c>
       <c r="C32" s="5"/>
@@ -2215,20 +2217,20 @@
         <v>106</v>
       </c>
       <c r="E32" s="5"/>
-      <c r="F32" s="25" t="s">
+      <c r="F32" s="21" t="s">
         <v>107</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>108</v>
       </c>
       <c r="H32" s="5"/>
-      <c r="J32" s="26" t="s">
+      <c r="J32" s="22" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A33" s="27"/>
-      <c r="B33" s="24">
+      <c r="A33" s="23"/>
+      <c r="B33" s="20">
         <v>59</v>
       </c>
       <c r="C33" s="5"/>
@@ -2236,25 +2238,25 @@
         <v>109</v>
       </c>
       <c r="E33" s="5"/>
-      <c r="F33" s="25" t="s">
+      <c r="F33" s="21" t="s">
         <v>110</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>111</v>
       </c>
       <c r="H33" s="5"/>
-      <c r="J33" s="26" t="s">
+      <c r="J33" s="22" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B34" s="24">
+      <c r="B34" s="20">
         <v>60</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
-      <c r="F34" s="25" t="s">
+      <c r="F34" s="21" t="s">
         <v>112</v>
       </c>
       <c r="G34" s="5" t="s">
@@ -2266,13 +2268,13 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B35" s="24">
+      <c r="B35" s="20">
         <v>61</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
-      <c r="F35" s="25" t="s">
+      <c r="F35" s="21" t="s">
         <v>114</v>
       </c>
       <c r="G35" s="5" t="s">
@@ -2281,13 +2283,13 @@
       <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B36" s="24">
+      <c r="B36" s="20">
         <v>62</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
-      <c r="F36" s="25" t="s">
+      <c r="F36" s="21" t="s">
         <v>116</v>
       </c>
       <c r="G36" s="5" t="s">
@@ -2296,7 +2298,7 @@
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B37" s="24">
+      <c r="B37" s="20">
         <v>63</v>
       </c>
       <c r="C37" s="5"/>
@@ -2304,7 +2306,7 @@
         <v>118</v>
       </c>
       <c r="E37" s="5"/>
-      <c r="F37" s="25" t="s">
+      <c r="F37" s="21" t="s">
         <v>119</v>
       </c>
       <c r="G37" s="5" t="s">
@@ -2313,13 +2315,13 @@
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B38" s="24">
+      <c r="B38" s="20">
         <v>65</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
-      <c r="F38" s="25" t="s">
+      <c r="F38" s="21" t="s">
         <v>121</v>
       </c>
       <c r="G38" s="5" t="s">
@@ -2331,13 +2333,13 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B39" s="24">
+      <c r="B39" s="20">
         <v>66</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
-      <c r="F39" s="25" t="s">
+      <c r="F39" s="21" t="s">
         <v>123</v>
       </c>
       <c r="G39" s="5" t="s">
@@ -2346,7 +2348,7 @@
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B40" s="24">
+      <c r="B40" s="20">
         <v>67</v>
       </c>
       <c r="C40" s="5"/>
@@ -2354,7 +2356,7 @@
         <v>125</v>
       </c>
       <c r="E40" s="5"/>
-      <c r="F40" s="25" t="s">
+      <c r="F40" s="21" t="s">
         <v>126</v>
       </c>
       <c r="G40" s="5" t="s">
@@ -2366,8 +2368,8 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="29" x14ac:dyDescent="0.45">
-      <c r="A41" s="27"/>
-      <c r="B41" s="24">
+      <c r="A41" s="23"/>
+      <c r="B41" s="20">
         <v>68</v>
       </c>
       <c r="C41" s="5"/>
@@ -2375,20 +2377,20 @@
         <v>128</v>
       </c>
       <c r="E41" s="5"/>
-      <c r="F41" s="25" t="s">
+      <c r="F41" s="21" t="s">
         <v>129</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>130</v>
       </c>
       <c r="H41" s="5"/>
-      <c r="J41" s="26" t="s">
+      <c r="J41" s="22" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A42" s="27"/>
-      <c r="B42" s="24">
+      <c r="A42" s="23"/>
+      <c r="B42" s="20">
         <v>69</v>
       </c>
       <c r="C42" s="5"/>
@@ -2399,12 +2401,12 @@
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
-      <c r="J42" s="26" t="s">
+      <c r="J42" s="22" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B43" s="24">
+      <c r="B43" s="20">
         <v>70</v>
       </c>
       <c r="C43" s="5"/>
@@ -2415,7 +2417,7 @@
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B44" s="24">
+      <c r="B44" s="20">
         <v>71</v>
       </c>
       <c r="C44" s="5" t="s">
@@ -2428,7 +2430,7 @@
       <c r="H44" s="5"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B45" s="24">
+      <c r="B45" s="20">
         <v>72</v>
       </c>
       <c r="C45" s="5" t="s">
@@ -2441,7 +2443,7 @@
       <c r="H45" s="5"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B46" s="24">
+      <c r="B46" s="20">
         <v>75</v>
       </c>
       <c r="C46" s="5"/>
@@ -2449,7 +2451,7 @@
         <v>132</v>
       </c>
       <c r="E46" s="5"/>
-      <c r="F46" s="25" t="s">
+      <c r="F46" s="21" t="s">
         <v>133</v>
       </c>
       <c r="G46" s="5" t="s">
@@ -2458,24 +2460,24 @@
       <c r="H46" s="5"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B47" s="24">
+      <c r="B47" s="20">
         <v>76</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
-      <c r="F47" s="25" t="s">
+      <c r="F47" s="21" t="s">
         <v>135</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>136</v>
       </c>
       <c r="H47" s="5"/>
-      <c r="K47" s="28"/>
+      <c r="K47" s="24"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A48" s="27"/>
-      <c r="B48" s="24">
+      <c r="A48" s="23"/>
+      <c r="B48" s="20">
         <v>77</v>
       </c>
       <c r="C48" s="5"/>
@@ -2492,8 +2494,8 @@
       <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:8" ht="29" x14ac:dyDescent="0.45">
-      <c r="A49" s="27"/>
-      <c r="B49" s="24">
+      <c r="A49" s="23"/>
+      <c r="B49" s="20">
         <v>77</v>
       </c>
       <c r="C49" s="5"/>
@@ -2510,7 +2512,7 @@
       <c r="H49" s="5"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B50" s="24">
+      <c r="B50" s="20">
         <v>78</v>
       </c>
       <c r="C50" s="5"/>
@@ -2522,7 +2524,7 @@
       <c r="H50" s="5"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B51" s="24">
+      <c r="B51" s="20">
         <v>79</v>
       </c>
       <c r="C51" s="5"/>
@@ -2535,7 +2537,7 @@
       <c r="H51" s="5"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B52" s="24">
+      <c r="B52" s="20">
         <v>80</v>
       </c>
       <c r="C52" s="5"/>
@@ -2550,8 +2552,8 @@
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A53" s="27"/>
-      <c r="B53" s="24">
+      <c r="A53" s="23"/>
+      <c r="B53" s="20">
         <v>81</v>
       </c>
       <c r="C53" s="5"/>
@@ -2568,8 +2570,8 @@
       <c r="H53" s="5"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A54" s="27"/>
-      <c r="B54" s="24"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="20"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -2582,7 +2584,7 @@
       <c r="H54" s="5"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B55" s="24">
+      <c r="B55" s="20">
         <v>82</v>
       </c>
       <c r="C55" s="5"/>
@@ -2590,7 +2592,7 @@
         <v>148</v>
       </c>
       <c r="E55" s="5"/>
-      <c r="F55" s="25" t="s">
+      <c r="F55" s="21" t="s">
         <v>149</v>
       </c>
       <c r="G55" s="5" t="s">
